--- a/medicine/Enfance/Rosemary_Sutcliff/Rosemary_Sutcliff.xlsx
+++ b/medicine/Enfance/Rosemary_Sutcliff/Rosemary_Sutcliff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosemary Sutcliff (14 décembre 1920 - 23 juillet 1992) est une femme de lettres britannique, auteure de romans historiques pour la jeunesse, se déroulant souvent dans la Grande-Bretagne de l'Antiquité ou reprenant le mythe arthurien dans une perspective historique.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,12 +551,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1959, elle reçoit la Carnegie Medal pour The Lantern Bearers. 
-En 1960, elle figure dans la « Honor List »[1], de l' IBBY, pour Warrior Scarlet (La Pourpre du guerrier).
+En 1960, elle figure dans la « Honor List », de l' IBBY, pour Warrior Scarlet (La Pourpre du guerrier).
 En 1971, elle est lauréate du Zilveren Griffel (nl).
-En 1974, elle est « Hightly Commended Authors »[1], par l' IBBY, pour l'ensemble de son œuvre.
+En 1974, elle est « Hightly Commended Authors », par l' IBBY, pour l'ensemble de son œuvre.
 En 1975, elle est faite officier de l'Empire britannique.
 </t>
         </is>
@@ -572,7 +588,9 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1954 : L'Aigle de la Neuvième Légion (The Eagle of the Ninth), Paris, Gallimard folio junior, 2003 — sur la Legio IX Hispana
 1957 : The Silver Branch
